--- a/biology/Botanique/Botsch/Botsch..xlsx
+++ b/biology/Botanique/Botsch/Botsch..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Victor Petrovitch Botchantsev (en russe: Виктор Петрович Бочанцев; en allemand: Wiktor Petrowitsch Botschanzew; en transcription universitaire: Victor Petrovič Botschantzev), né le 20 octobre 1910 et mort le 30 août 1990 à Léningrad, est un botaniste soviétique qui s'est surtout intéressé au Brassicaceae et aux Chenopodiaceae, ainsi qu'à la végétation des régions arides d'Asie centrale. Sa carrière scientifique s'est principalement déroulée à l'institut de botanique Komarov de Léningrad. Il a étudié et identifié 571 nouvelles espèces de plantes. Victor Botchantsev était le frère cadet de la botaniste Zinaïda Botchantseva.
 </t>
@@ -511,7 +523,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(fr) L. E. Rodin, B. Vinogradov. Y. Mirochnenko. M. Pelt, H. Kalenov &amp; V. Botschantzev, Étude géobotanique des pâturages du secteur ouest du département de Médéa (Algérie), éd Naouka, 124 pages, 1970
 Il a publié de nombreux articles pour des ouvrages encyclopédiques, tels que la collection de La Flore d'URSS pour laquelle il a rédigé des articles dans les recueils suivants La Flore de la RSS du Tadjikistan; La Flore d'Ouzbékistan; La Flore de Corée; La Flore du Qinghai, etc.
@@ -552,7 +566,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Un genre et plusieurs espèces ont été nommés en son honneur, parmi lesquelles:
 Genre
